--- a/biology/Zoologie/Charaxes_kheili/Charaxes_kheili.xlsx
+++ b/biology/Zoologie/Charaxes_kheili/Charaxes_kheili.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Charaxes kheili  est une espèce de lépidoptères (papillons) appartenant à la famille des Nymphalidae, à la sous-famille des Charaxinae et au genre  Charaxes.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce  Charaxes kheili  a été décrite par le naturaliste allemand Otto Staudinger en 1896[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce  Charaxes kheili  a été décrite par le naturaliste allemand Otto Staudinger en 1896,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Charaxes lemosi est un grand papillon de couleur marron avec deux queues aux postérieures, une bordure dorée et une tache bleue aux antérieures
 Le revers est ocre clair.
@@ -574,10 +590,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sa biologie est mal connue.
-Plantes hôtes</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa biologie est mal connue.
+</t>
         </is>
       </c>
     </row>
@@ -605,9 +623,11 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est uniquement présent en Afrique, au Cameroun, au Gabon et dans le sud-ouest du Zaïre[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est uniquement présent en Afrique, au Cameroun, au Gabon et dans le sud-ouest du Zaïre.
 </t>
         </is>
       </c>
